--- a/medicine/Nettoyage et hygiène/Corde_à_linge/Corde_à_linge.xlsx
+++ b/medicine/Nettoyage et hygiène/Corde_à_linge/Corde_à_linge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corde_%C3%A0_linge</t>
+          <t>Corde_à_linge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une corde à linge est un dispositif simple utilisé pour étendre le linge en vue de procéder à son séchage, le plus souvent après qu'il a été lavé dans une machine à laver le linge. Il se présente sous la forme d'une corde que l'on tend entre deux points élevés afin de lui conférer une certaine rigidité  et rendre l'installation résistante au poids des vêtements et du linge de maison encore mouillés, que l'on évite ainsi de faire toucher le sol. Il s'agit de permettre une ventilation idéale des différentes pièces en exposant un maximum de leur surface à l'action de l'air tout en évitant, du fait de la gravité, la formation de plis disgracieux.
 Ce dispositif est généralement installé en extérieur, dans les cours lorsque le ménage en est équipé, sur un balcon ou à une fenêtre autrement. Cela ne va pas sans poser des problèmes, car un vent fort peut emporter le linge et la pluie le mouiller à nouveau, tout en le salissant. On tente généralement de remédier au premier inconvénient en attachant le linge à la corde par le biais de pinces à linge. Quant aux précipitations, elles sont parfois évitées grâce à un perfectionnement du système permettant la détection des premières gouttes puis la mise à l'abri de la corde entière : elle est soit rétractée vers un lieu couvert, soit recouverte par une bâche qui se déploie pour protéger l'installation.
